--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.11356080718753</v>
+        <v>7.280961333333333</v>
       </c>
       <c r="H2">
-        <v>6.11356080718753</v>
+        <v>21.842884</v>
       </c>
       <c r="I2">
-        <v>0.03858823053227258</v>
+        <v>0.04342075424616227</v>
       </c>
       <c r="J2">
-        <v>0.03858823053227258</v>
+        <v>0.04516746398185793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.29735463829157</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N2">
-        <v>3.29735463829157</v>
+        <v>17.528442</v>
       </c>
       <c r="O2">
-        <v>0.2801041624372606</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P2">
-        <v>0.2801041624372606</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q2">
-        <v>20.15857808405736</v>
+        <v>42.54130281185867</v>
       </c>
       <c r="R2">
-        <v>20.15857808405736</v>
+        <v>382.871725306728</v>
       </c>
       <c r="S2">
-        <v>0.01080872399317814</v>
+        <v>0.01686793559088456</v>
       </c>
       <c r="T2">
-        <v>0.01080872399317814</v>
+        <v>0.02046021315252041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.11356080718753</v>
+        <v>7.280961333333333</v>
       </c>
       <c r="H3">
-        <v>6.11356080718753</v>
+        <v>21.842884</v>
       </c>
       <c r="I3">
-        <v>0.03858823053227258</v>
+        <v>0.04342075424616227</v>
       </c>
       <c r="J3">
-        <v>0.03858823053227258</v>
+        <v>0.04516746398185793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.86808040548519</v>
+        <v>1.970524</v>
       </c>
       <c r="N3">
-        <v>1.86808040548519</v>
+        <v>5.911572</v>
       </c>
       <c r="O3">
-        <v>0.1586899665772675</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P3">
-        <v>0.1586899665772675</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q3">
-        <v>11.42062315164925</v>
+        <v>14.34730905040533</v>
       </c>
       <c r="R3">
-        <v>11.42062315164925</v>
+        <v>129.125781453648</v>
       </c>
       <c r="S3">
-        <v>0.00612356501344223</v>
+        <v>0.005688812259348357</v>
       </c>
       <c r="T3">
-        <v>0.00612356501344223</v>
+        <v>0.006900329372483383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.11356080718753</v>
+        <v>7.280961333333333</v>
       </c>
       <c r="H4">
-        <v>6.11356080718753</v>
+        <v>21.842884</v>
       </c>
       <c r="I4">
-        <v>0.03858823053227258</v>
+        <v>0.04342075424616227</v>
       </c>
       <c r="J4">
-        <v>0.03858823053227258</v>
+        <v>0.04516746398185793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.428664735509589</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N4">
-        <v>0.428664735509589</v>
+        <v>1.598171</v>
       </c>
       <c r="O4">
-        <v>0.03641427443440373</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P4">
-        <v>0.03641427443440373</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q4">
-        <v>2.620667926434832</v>
+        <v>3.878740418351556</v>
       </c>
       <c r="R4">
-        <v>2.620667926434832</v>
+        <v>34.908663765164</v>
       </c>
       <c r="S4">
-        <v>0.001405162416540211</v>
+        <v>0.001537948751590105</v>
       </c>
       <c r="T4">
-        <v>0.001405162416540211</v>
+        <v>0.001865477793986294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.11356080718753</v>
+        <v>7.280961333333333</v>
       </c>
       <c r="H5">
-        <v>6.11356080718753</v>
+        <v>21.842884</v>
       </c>
       <c r="I5">
-        <v>0.03858823053227258</v>
+        <v>0.04342075424616227</v>
       </c>
       <c r="J5">
-        <v>0.03858823053227258</v>
+        <v>0.04516746398185793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.17778754148894</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N5">
-        <v>6.17778754148894</v>
+        <v>0.805883</v>
       </c>
       <c r="O5">
-        <v>0.5247915965510682</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P5">
-        <v>0.5247915965510682</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q5">
-        <v>37.76827978877819</v>
+        <v>1.955867654063555</v>
       </c>
       <c r="R5">
-        <v>37.76827978877819</v>
+        <v>17.602808886572</v>
       </c>
       <c r="S5">
-        <v>0.020250779109112</v>
+        <v>0.000775515732532807</v>
       </c>
       <c r="T5">
-        <v>0.020250779109112</v>
+        <v>0.0009406733328605364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.5820726477971</v>
+        <v>7.280961333333333</v>
       </c>
       <c r="H6">
-        <v>73.5820726477971</v>
+        <v>21.842884</v>
       </c>
       <c r="I6">
-        <v>0.4644432388792835</v>
+        <v>0.04342075424616227</v>
       </c>
       <c r="J6">
-        <v>0.4644432388792835</v>
+        <v>0.04516746398185793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.29735463829157</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N6">
-        <v>3.29735463829157</v>
+        <v>12.85129</v>
       </c>
       <c r="O6">
-        <v>0.2801041624372606</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P6">
-        <v>0.2801041624372606</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q6">
-        <v>242.6261885403211</v>
+        <v>46.78487278672666</v>
       </c>
       <c r="R6">
-        <v>242.6261885403211</v>
+        <v>280.70923672036</v>
       </c>
       <c r="S6">
-        <v>0.1300924844259303</v>
+        <v>0.01855054191180644</v>
       </c>
       <c r="T6">
-        <v>0.1300924844259303</v>
+        <v>0.01500077033000731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.5820726477971</v>
+        <v>77.654359</v>
       </c>
       <c r="H7">
-        <v>73.5820726477971</v>
+        <v>232.963077</v>
       </c>
       <c r="I7">
-        <v>0.4644432388792835</v>
+        <v>0.4630996765283732</v>
       </c>
       <c r="J7">
-        <v>0.4644432388792835</v>
+        <v>0.4817290331029683</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86808040548519</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N7">
-        <v>1.86808040548519</v>
+        <v>17.528442</v>
       </c>
       <c r="O7">
-        <v>0.1586899665772675</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P7">
-        <v>0.1586899665772675</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q7">
-        <v>137.4572281083375</v>
+        <v>453.719975926226</v>
       </c>
       <c r="R7">
-        <v>137.4572281083375</v>
+        <v>4083.479783336034</v>
       </c>
       <c r="S7">
-        <v>0.07370248205479138</v>
+        <v>0.1799032663402086</v>
       </c>
       <c r="T7">
-        <v>0.07370248205479138</v>
+        <v>0.2182163404835655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.5820726477971</v>
+        <v>77.654359</v>
       </c>
       <c r="H8">
-        <v>73.5820726477971</v>
+        <v>232.963077</v>
       </c>
       <c r="I8">
-        <v>0.4644432388792835</v>
+        <v>0.4630996765283732</v>
       </c>
       <c r="J8">
-        <v>0.4644432388792835</v>
+        <v>0.4817290331029683</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.428664735509589</v>
+        <v>1.970524</v>
       </c>
       <c r="N8">
-        <v>0.428664735509589</v>
+        <v>5.911572</v>
       </c>
       <c r="O8">
-        <v>0.03641427443440373</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P8">
-        <v>0.03641427443440373</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q8">
-        <v>31.54203970981531</v>
+        <v>153.019778114116</v>
       </c>
       <c r="R8">
-        <v>31.54203970981531</v>
+        <v>1377.178003027044</v>
       </c>
       <c r="S8">
-        <v>0.01691236355975356</v>
+        <v>0.06067345357934947</v>
       </c>
       <c r="T8">
-        <v>0.01691236355975356</v>
+        <v>0.07359476719865417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.5820726477971</v>
+        <v>77.654359</v>
       </c>
       <c r="H9">
-        <v>73.5820726477971</v>
+        <v>232.963077</v>
       </c>
       <c r="I9">
-        <v>0.4644432388792835</v>
+        <v>0.4630996765283732</v>
       </c>
       <c r="J9">
-        <v>0.4644432388792835</v>
+        <v>0.4817290331029683</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.17778754148894</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N9">
-        <v>6.17778754148894</v>
+        <v>1.598171</v>
       </c>
       <c r="O9">
-        <v>0.5247915965510682</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P9">
-        <v>0.5247915965510682</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q9">
-        <v>454.5744116804951</v>
+        <v>41.36831485912967</v>
       </c>
       <c r="R9">
-        <v>454.5744116804951</v>
+        <v>372.314833732167</v>
       </c>
       <c r="S9">
-        <v>0.2437359088388084</v>
+        <v>0.01640283734687872</v>
       </c>
       <c r="T9">
-        <v>0.2437359088388084</v>
+        <v>0.01989606532554122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.7179408037311</v>
+        <v>77.654359</v>
       </c>
       <c r="H10">
-        <v>24.7179408037311</v>
+        <v>232.963077</v>
       </c>
       <c r="I10">
-        <v>0.1560173568399063</v>
+        <v>0.4630996765283732</v>
       </c>
       <c r="J10">
-        <v>0.1560173568399063</v>
+        <v>0.4817290331029683</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.29735463829157</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N10">
-        <v>3.29735463829157</v>
+        <v>0.805883</v>
       </c>
       <c r="O10">
-        <v>0.2801041624372606</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P10">
-        <v>0.2801041624372606</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q10">
-        <v>81.50381675819921</v>
+        <v>20.86010926466567</v>
       </c>
       <c r="R10">
-        <v>81.50381675819921</v>
+        <v>187.740983381991</v>
       </c>
       <c r="S10">
-        <v>0.04370111106331718</v>
+        <v>0.008271184854195614</v>
       </c>
       <c r="T10">
-        <v>0.04370111106331718</v>
+        <v>0.01003265658852722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.7179408037311</v>
+        <v>77.654359</v>
       </c>
       <c r="H11">
-        <v>24.7179408037311</v>
+        <v>232.963077</v>
       </c>
       <c r="I11">
-        <v>0.1560173568399063</v>
+        <v>0.4630996765283732</v>
       </c>
       <c r="J11">
-        <v>0.1560173568399063</v>
+        <v>0.4817290331029683</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.86808040548519</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N11">
-        <v>1.86808040548519</v>
+        <v>12.85129</v>
       </c>
       <c r="O11">
-        <v>0.1586899665772675</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P11">
-        <v>0.1586899665772675</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q11">
-        <v>46.17510087939291</v>
+        <v>498.979343636555</v>
       </c>
       <c r="R11">
-        <v>46.17510087939291</v>
+        <v>2993.87606181933</v>
       </c>
       <c r="S11">
-        <v>0.02475838914239836</v>
+        <v>0.1978489344077408</v>
       </c>
       <c r="T11">
-        <v>0.02475838914239836</v>
+        <v>0.1599892035066802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.7179408037311</v>
+        <v>25.5988</v>
       </c>
       <c r="H12">
-        <v>24.7179408037311</v>
+        <v>76.79640000000001</v>
       </c>
       <c r="I12">
-        <v>0.1560173568399063</v>
+        <v>0.1526610502253263</v>
       </c>
       <c r="J12">
-        <v>0.1560173568399063</v>
+        <v>0.1588022273494816</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.428664735509589</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N12">
-        <v>0.428664735509589</v>
+        <v>17.528442</v>
       </c>
       <c r="O12">
-        <v>0.03641427443440373</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P12">
-        <v>0.03641427443440373</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q12">
-        <v>10.59570955697307</v>
+        <v>149.5690270232</v>
       </c>
       <c r="R12">
-        <v>10.59570955697307</v>
+        <v>1346.1212432088</v>
       </c>
       <c r="S12">
-        <v>0.005681258848498645</v>
+        <v>0.05930520570506199</v>
       </c>
       <c r="T12">
-        <v>0.005681258848498645</v>
+        <v>0.0719351306057487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.7179408037311</v>
+        <v>25.5988</v>
       </c>
       <c r="H13">
-        <v>24.7179408037311</v>
+        <v>76.79640000000001</v>
       </c>
       <c r="I13">
-        <v>0.1560173568399063</v>
+        <v>0.1526610502253263</v>
       </c>
       <c r="J13">
-        <v>0.1560173568399063</v>
+        <v>0.1588022273494816</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.17778754148894</v>
+        <v>1.970524</v>
       </c>
       <c r="N13">
-        <v>6.17778754148894</v>
+        <v>5.911572</v>
       </c>
       <c r="O13">
-        <v>0.5247915965510682</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P13">
-        <v>0.5247915965510682</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q13">
-        <v>152.7021867485511</v>
+        <v>50.4430497712</v>
       </c>
       <c r="R13">
-        <v>152.7021867485511</v>
+        <v>453.9874479408</v>
       </c>
       <c r="S13">
-        <v>0.08187659778569217</v>
+        <v>0.02000103565966015</v>
       </c>
       <c r="T13">
-        <v>0.08187659778569217</v>
+        <v>0.02426055344252998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.7593487189539</v>
+        <v>25.5988</v>
       </c>
       <c r="H14">
-        <v>34.7593487189539</v>
+        <v>76.79640000000001</v>
       </c>
       <c r="I14">
-        <v>0.219397795134665</v>
+        <v>0.1526610502253263</v>
       </c>
       <c r="J14">
-        <v>0.219397795134665</v>
+        <v>0.1588022273494816</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.29735463829157</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N14">
-        <v>3.29735463829157</v>
+        <v>1.598171</v>
       </c>
       <c r="O14">
-        <v>0.2801041624372606</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P14">
-        <v>0.2801041624372606</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q14">
-        <v>114.6138997224368</v>
+        <v>13.63708659826667</v>
       </c>
       <c r="R14">
-        <v>114.6138997224368</v>
+        <v>122.7337793844</v>
       </c>
       <c r="S14">
-        <v>0.06145423564677702</v>
+        <v>0.005407203897919999</v>
       </c>
       <c r="T14">
-        <v>0.06145423564677702</v>
+        <v>0.006558748325454139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.7593487189539</v>
+        <v>25.5988</v>
       </c>
       <c r="H15">
-        <v>34.7593487189539</v>
+        <v>76.79640000000001</v>
       </c>
       <c r="I15">
-        <v>0.219397795134665</v>
+        <v>0.1526610502253263</v>
       </c>
       <c r="J15">
-        <v>0.219397795134665</v>
+        <v>0.1588022273494816</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.86808040548519</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N15">
-        <v>1.86808040548519</v>
+        <v>0.805883</v>
       </c>
       <c r="O15">
-        <v>0.1586899665772675</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P15">
-        <v>0.1586899665772675</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q15">
-        <v>64.93325824930453</v>
+        <v>6.876545913466667</v>
       </c>
       <c r="R15">
-        <v>64.93325824930453</v>
+        <v>61.88891322120001</v>
       </c>
       <c r="S15">
-        <v>0.03481622877704618</v>
+        <v>0.002726600406882281</v>
       </c>
       <c r="T15">
-        <v>0.03481622877704618</v>
+        <v>0.003307270484048301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.7593487189539</v>
+        <v>25.5988</v>
       </c>
       <c r="H16">
-        <v>34.7593487189539</v>
+        <v>76.79640000000001</v>
       </c>
       <c r="I16">
-        <v>0.219397795134665</v>
+        <v>0.1526610502253263</v>
       </c>
       <c r="J16">
-        <v>0.219397795134665</v>
+        <v>0.1588022273494816</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.428664735509589</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N16">
-        <v>0.428664735509589</v>
+        <v>12.85129</v>
       </c>
       <c r="O16">
-        <v>0.03641427443440373</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P16">
-        <v>0.03641427443440373</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q16">
-        <v>14.90010702509595</v>
+        <v>164.488801226</v>
       </c>
       <c r="R16">
-        <v>14.90010702509595</v>
+        <v>986.932807356</v>
       </c>
       <c r="S16">
-        <v>0.007989211522336779</v>
+        <v>0.06522100455580188</v>
       </c>
       <c r="T16">
-        <v>0.007989211522336779</v>
+        <v>0.05274052449170052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.7593487189539</v>
+        <v>37.69583433333333</v>
       </c>
       <c r="H17">
-        <v>34.7593487189539</v>
+        <v>113.087503</v>
       </c>
       <c r="I17">
-        <v>0.219397795134665</v>
+        <v>0.2248029461711713</v>
       </c>
       <c r="J17">
-        <v>0.219397795134665</v>
+        <v>0.2338462136479208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.17778754148894</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N17">
-        <v>6.17778754148894</v>
+        <v>17.528442</v>
       </c>
       <c r="O17">
-        <v>0.5247915965510682</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P17">
-        <v>0.5247915965510682</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q17">
-        <v>214.735871466223</v>
+        <v>220.2497485844807</v>
       </c>
       <c r="R17">
-        <v>214.735871466223</v>
+        <v>1982.247737260326</v>
       </c>
       <c r="S17">
-        <v>0.115138119188505</v>
+        <v>0.0873306252387718</v>
       </c>
       <c r="T17">
-        <v>0.115138119188505</v>
+        <v>0.1059289797201822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.2577882225903</v>
+        <v>37.69583433333333</v>
       </c>
       <c r="H18">
-        <v>19.2577882225903</v>
+        <v>113.087503</v>
       </c>
       <c r="I18">
-        <v>0.1215533786138726</v>
+        <v>0.2248029461711713</v>
       </c>
       <c r="J18">
-        <v>0.1215533786138726</v>
+        <v>0.2338462136479208</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.29735463829157</v>
+        <v>1.970524</v>
       </c>
       <c r="N18">
-        <v>3.29735463829157</v>
+        <v>5.911572</v>
       </c>
       <c r="O18">
-        <v>0.2801041624372606</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P18">
-        <v>0.2801041624372606</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q18">
-        <v>63.4997573189949</v>
+        <v>74.28054625385732</v>
       </c>
       <c r="R18">
-        <v>63.4997573189949</v>
+        <v>668.5249162847159</v>
       </c>
       <c r="S18">
-        <v>0.034047607308058</v>
+        <v>0.02945277617394727</v>
       </c>
       <c r="T18">
-        <v>0.034047607308058</v>
+        <v>0.03572518256342444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.2577882225903</v>
+        <v>37.69583433333333</v>
       </c>
       <c r="H19">
-        <v>19.2577882225903</v>
+        <v>113.087503</v>
       </c>
       <c r="I19">
-        <v>0.1215533786138726</v>
+        <v>0.2248029461711713</v>
       </c>
       <c r="J19">
-        <v>0.1215533786138726</v>
+        <v>0.2338462136479208</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.86808040548519</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N19">
-        <v>1.86808040548519</v>
+        <v>1.598171</v>
       </c>
       <c r="O19">
-        <v>0.1586899665772675</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P19">
-        <v>0.1586899665772675</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q19">
-        <v>35.9750968316044</v>
+        <v>20.08146308411256</v>
       </c>
       <c r="R19">
-        <v>35.9750968316044</v>
+        <v>180.733167757013</v>
       </c>
       <c r="S19">
-        <v>0.01928930158958939</v>
+        <v>0.007962445987411382</v>
       </c>
       <c r="T19">
-        <v>0.01928930158958939</v>
+        <v>0.009658167191835033</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.2577882225903</v>
+        <v>37.69583433333333</v>
       </c>
       <c r="H20">
-        <v>19.2577882225903</v>
+        <v>113.087503</v>
       </c>
       <c r="I20">
-        <v>0.1215533786138726</v>
+        <v>0.2248029461711713</v>
       </c>
       <c r="J20">
-        <v>0.1215533786138726</v>
+        <v>0.2338462136479208</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.428664735509589</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N20">
-        <v>0.428664735509589</v>
+        <v>0.805883</v>
       </c>
       <c r="O20">
-        <v>0.03641427443440373</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P20">
-        <v>0.03641427443440373</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q20">
-        <v>8.255134694936348</v>
+        <v>10.12614402001655</v>
       </c>
       <c r="R20">
-        <v>8.255134694936348</v>
+        <v>91.135296180149</v>
       </c>
       <c r="S20">
-        <v>0.004426278087274538</v>
+        <v>0.004015089661665145</v>
       </c>
       <c r="T20">
-        <v>0.004426278087274538</v>
+        <v>0.004870162674117846</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.2577882225903</v>
+        <v>37.69583433333333</v>
       </c>
       <c r="H21">
-        <v>19.2577882225903</v>
+        <v>113.087503</v>
       </c>
       <c r="I21">
-        <v>0.1215533786138726</v>
+        <v>0.2248029461711713</v>
       </c>
       <c r="J21">
-        <v>0.1215533786138726</v>
+        <v>0.2338462136479208</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17778754148894</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N21">
-        <v>6.17778754148894</v>
+        <v>12.85129</v>
       </c>
       <c r="O21">
-        <v>0.5247915965510682</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P21">
-        <v>0.5247915965510682</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q21">
-        <v>118.9705241581508</v>
+        <v>242.2200494048116</v>
       </c>
       <c r="R21">
-        <v>118.9705241581508</v>
+        <v>1453.32029642887</v>
       </c>
       <c r="S21">
-        <v>0.06379019162895067</v>
+        <v>0.09604200910937567</v>
       </c>
       <c r="T21">
-        <v>0.06379019162895067</v>
+        <v>0.07766372149836133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19.4539435</v>
+      </c>
+      <c r="H22">
+        <v>38.907887</v>
+      </c>
+      <c r="I22">
+        <v>0.116015572828967</v>
+      </c>
+      <c r="J22">
+        <v>0.08045506191777142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.842814000000001</v>
+      </c>
+      <c r="N22">
+        <v>17.528442</v>
+      </c>
+      <c r="O22">
+        <v>0.388476337726801</v>
+      </c>
+      <c r="P22">
+        <v>0.4529856526976699</v>
+      </c>
+      <c r="Q22">
+        <v>113.665773437009</v>
+      </c>
+      <c r="R22">
+        <v>681.9946406220541</v>
+      </c>
+      <c r="S22">
+        <v>0.04506930485187406</v>
+      </c>
+      <c r="T22">
+        <v>0.03644498873565313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19.4539435</v>
+      </c>
+      <c r="H23">
+        <v>38.907887</v>
+      </c>
+      <c r="I23">
+        <v>0.116015572828967</v>
+      </c>
+      <c r="J23">
+        <v>0.08045506191777142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.970524</v>
+      </c>
+      <c r="N23">
+        <v>5.911572</v>
+      </c>
+      <c r="O23">
+        <v>0.1310159705448037</v>
+      </c>
+      <c r="P23">
+        <v>0.1527721232091973</v>
+      </c>
+      <c r="Q23">
+        <v>38.334462561394</v>
+      </c>
+      <c r="R23">
+        <v>230.006775368364</v>
+      </c>
+      <c r="S23">
+        <v>0.01519989287249847</v>
+      </c>
+      <c r="T23">
+        <v>0.01229129063210538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.4539435</v>
+      </c>
+      <c r="H24">
+        <v>38.907887</v>
+      </c>
+      <c r="I24">
+        <v>0.116015572828967</v>
+      </c>
+      <c r="J24">
+        <v>0.08045506191777142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5327236666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.598171</v>
+      </c>
+      <c r="O24">
+        <v>0.03541966919485367</v>
+      </c>
+      <c r="P24">
+        <v>0.04130136229777226</v>
+      </c>
+      <c r="Q24">
+        <v>10.36357611244617</v>
+      </c>
+      <c r="R24">
+        <v>62.181456674677</v>
+      </c>
+      <c r="S24">
+        <v>0.004109233211053464</v>
+      </c>
+      <c r="T24">
+        <v>0.003322903660955577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>19.4539435</v>
+      </c>
+      <c r="H25">
+        <v>38.907887</v>
+      </c>
+      <c r="I25">
+        <v>0.116015572828967</v>
+      </c>
+      <c r="J25">
+        <v>0.08045506191777142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.2686276666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.805883</v>
+      </c>
+      <c r="O25">
+        <v>0.01786048506058254</v>
+      </c>
+      <c r="P25">
+        <v>0.02082634821468766</v>
+      </c>
+      <c r="Q25">
+        <v>5.225867449870167</v>
+      </c>
+      <c r="R25">
+        <v>31.355204699221</v>
+      </c>
+      <c r="S25">
+        <v>0.00207209440530669</v>
+      </c>
+      <c r="T25">
+        <v>0.001675585135133764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>19.4539435</v>
+      </c>
+      <c r="H26">
+        <v>38.907887</v>
+      </c>
+      <c r="I26">
+        <v>0.116015572828967</v>
+      </c>
+      <c r="J26">
+        <v>0.08045506191777142</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.425644999999999</v>
+      </c>
+      <c r="N26">
+        <v>12.85129</v>
+      </c>
+      <c r="O26">
+        <v>0.4272275374729591</v>
+      </c>
+      <c r="P26">
+        <v>0.3321145135806729</v>
+      </c>
+      <c r="Q26">
+        <v>125.0041347810575</v>
+      </c>
+      <c r="R26">
+        <v>500.01653912423</v>
+      </c>
+      <c r="S26">
+        <v>0.0495650474882343</v>
+      </c>
+      <c r="T26">
+        <v>0.02672029375392358</v>
       </c>
     </row>
   </sheetData>
